--- a/CapturaLaFragua/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaLaFragua/Reportes/Preguntas y respuestas.xlsx
@@ -435,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,6 +445,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,21 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ20"/>
+  <dimension ref="A1:BJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:BJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,221 +776,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="12" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BH1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BI1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:62" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5" t="s">
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5" t="s">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5" t="s">
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5" t="s">
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
     </row>
     <row r="3" spans="1:62" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="3" t="s">
         <v>51</v>
       </c>
@@ -1098,17 +1099,17 @@
       <c r="AY3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1175,33 +1176,4783 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <f t="shared" ref="B22:F22" si="0">SUM(B4:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" ref="G22:AY22" si="1">SUM(G4:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="14">
+        <f t="shared" ref="AZ22:BJ22" si="2">SUM(AZ4:AZ20)</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BH22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BI22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="e">
+        <f t="shared" ref="B23:F23" si="3">100/B22*B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="14" t="e">
+        <f t="shared" ref="G23:AY23" si="4">100/G22*G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY23" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ23" s="14" t="e">
+        <f t="shared" ref="AZ23:BJ23" si="5">100/AZ22*AZ4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ23" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="e">
+        <f t="shared" ref="B24:F24" si="6">100/B22*B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="14" t="e">
+        <f t="shared" ref="G24:AY24" si="7">100/G22*G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ24" s="14" t="e">
+        <f t="shared" ref="AZ24:BJ24" si="8">100/AZ22*AZ5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="e">
+        <f t="shared" ref="B25:F25" si="9">100/B22*B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="14" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="14" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="14" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="14" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="14" t="e">
+        <f t="shared" ref="G25:AY25" si="10">100/G22*G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY25" s="14" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ25" s="14" t="e">
+        <f t="shared" ref="AZ25:BJ25" si="11">100/AZ22*AZ6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ25" s="14" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="e">
+        <f t="shared" ref="B26:F26" si="12">100/B22*B7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="14" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="14" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="14" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="14" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="14" t="e">
+        <f t="shared" ref="G26:AY26" si="13">100/G22*G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY26" s="14" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ26" s="14" t="e">
+        <f t="shared" ref="AZ26:BJ26" si="14">100/AZ22*AZ7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ26" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="e">
+        <f t="shared" ref="B27:F27" si="15">100/B22*B8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="14" t="e">
+        <f t="shared" ref="G27:AY27" si="16">100/G22*G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY27" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ27" s="14" t="e">
+        <f t="shared" ref="AZ27:BJ27" si="17">100/AZ22*AZ8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ27" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="e">
+        <f t="shared" ref="B28:F28" si="18">100/B22*B9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="14" t="e">
+        <f>100/G22*G9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="14" t="e">
+        <f t="shared" ref="H28:AY28" si="19">100/H22*H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY28" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ28" s="14" t="e">
+        <f>100/AZ22*AZ9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA28" s="14" t="e">
+        <f t="shared" ref="BA28:BJ28" si="20">100/BA22*BA9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ28" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="e">
+        <f t="shared" ref="B29:F29" si="21">100/B22*B10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" s="14" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="14" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="14" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="14" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="14" t="e">
+        <f>100/G22*G10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="14" t="e">
+        <f t="shared" ref="H29:AY29" si="22">100/H22*H10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY29" s="14" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ29" s="14" t="e">
+        <f>100/AZ22*AZ10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA29" s="14" t="e">
+        <f t="shared" ref="BA29:BJ29" si="23">100/BA22*BA10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ29" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="e">
+        <f t="shared" ref="B30:F30" si="24">100/B22*B11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="14" t="e">
+        <f>100/G22*G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="14" t="e">
+        <f t="shared" ref="H30:AY30" si="25">100/H22*H11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY30" s="14" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ30" s="14" t="e">
+        <f>100/AZ22*AZ11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA30" s="14" t="e">
+        <f t="shared" ref="BA30:BJ30" si="26">100/BA22*BA11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ30" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="e">
+        <f t="shared" ref="B31:F31" si="27">100/B22*B12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="14" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="14" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="14" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="14" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="14" t="e">
+        <f>100/G22*G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="14" t="e">
+        <f t="shared" ref="H31:AY31" si="28">100/H22*H12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY31" s="14" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ31" s="14" t="e">
+        <f>100/AZ22*AZ12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA31" s="14" t="e">
+        <f t="shared" ref="BA31:BJ31" si="29">100/BA22*BA12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ31" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="e">
+        <f t="shared" ref="B32:F32" si="30">100/B22*B13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="14" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="14" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="14" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="14" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="14" t="e">
+        <f>100/G22*G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="14" t="e">
+        <f t="shared" ref="H32:AY32" si="31">100/H22*H13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY32" s="14" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ32" s="14" t="e">
+        <f>100/AZ22*AZ13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA32" s="14" t="e">
+        <f t="shared" ref="BA32:BJ32" si="32">100/BA22*BA13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ32" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="e">
+        <f t="shared" ref="B33:F33" si="33">100/B22*B14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="14" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="14" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="14" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="14" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="14" t="e">
+        <f>100/G22*G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="14" t="e">
+        <f t="shared" ref="H33:AY33" si="34">100/H22*H14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY33" s="14" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ33" s="14" t="e">
+        <f>100/AZ22*AZ14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA33" s="14" t="e">
+        <f t="shared" ref="BA33:BJ33" si="35">100/BA22*BA14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ33" s="14" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="e">
+        <f t="shared" ref="B34:F34" si="36">100/B22*B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="14" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="14" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="14" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="14" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="14" t="e">
+        <f>100/G22*G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="14" t="e">
+        <f t="shared" ref="H34:AY34" si="37">100/H22*H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY34" s="14" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ34" s="14" t="e">
+        <f>100/AZ22*AZ15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA34" s="14" t="e">
+        <f t="shared" ref="BA34:BJ34" si="38">100/BA22*BA15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ34" s="14" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="e">
+        <f t="shared" ref="B35:F35" si="39">100/B22*B16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="14" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="14" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="14" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="14" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="14" t="e">
+        <f>100/G22*G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="14" t="e">
+        <f t="shared" ref="H35:AY35" si="40">100/H22*H16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY35" s="14" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ35" s="14" t="e">
+        <f>100/AZ22*AZ16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA35" s="14" t="e">
+        <f t="shared" ref="BA35:BJ35" si="41">100/BA22*BA16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ35" s="14" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="e">
+        <f t="shared" ref="B36:F36" si="42">100/B22*B17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="14" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="14" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="14" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="14" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="14" t="e">
+        <f>100/G22*G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="14" t="e">
+        <f t="shared" ref="H36:AY36" si="43">100/H22*H17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY36" s="14" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ36" s="14" t="e">
+        <f>100/AZ22*AZ17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA36" s="14" t="e">
+        <f t="shared" ref="BA36:BJ36" si="44">100/BA22*BA17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ36" s="14" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="e">
+        <f t="shared" ref="B37:F37" si="45">100/B22*B18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="14" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="14" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="14" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="14" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="14" t="e">
+        <f>100/G22*G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="14" t="e">
+        <f t="shared" ref="H37:AY37" si="46">100/H22*H18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY37" s="14" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ37" s="14" t="e">
+        <f>100/AZ22*AZ18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA37" s="14" t="e">
+        <f t="shared" ref="BA37:BJ37" si="47">100/BA22*BA18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ37" s="14" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="e">
+        <f t="shared" ref="B38:F38" si="48">100/B22*B19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="14" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="14" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="14" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="14" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="14" t="e">
+        <f>100/G22*G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="14" t="e">
+        <f t="shared" ref="H38:AY38" si="49">100/H22*H19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY38" s="14" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ38" s="14" t="e">
+        <f>100/AZ22*AZ19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA38" s="14" t="e">
+        <f t="shared" ref="BA38:BJ38" si="50">100/BA22*BA19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ38" s="14" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="e">
+        <f t="shared" ref="B39:F39" si="51">100/B22*B20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="14" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="14" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="14" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="14" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="14" t="e">
+        <f>100/G22*G20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="14" t="e">
+        <f t="shared" ref="H39:AY39" si="52">100/H22*H20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY39" s="14" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ39" s="14" t="e">
+        <f>100/AZ22*AZ20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA39" s="14" t="e">
+        <f t="shared" ref="BA39:BJ39" si="53">100/BA22*BA20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ39" s="14" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="14"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="14"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+    </row>
+    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="e">
+        <f t="shared" ref="B41:F41" si="54">SUM(B23:B39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" s="14" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="14" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="14" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="14" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="14" t="e">
+        <f t="shared" ref="G41:AY41" si="55">SUM(G23:G39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY41" s="14" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ41" s="14" t="e">
+        <f t="shared" ref="AZ41:BJ41" si="56">SUM(AZ23:AZ39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ41" s="14" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="P1:AY1"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="BI1:BI3"/>
     <mergeCell ref="AZ1:AZ3"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="T2:W2"/>
@@ -1210,29 +5961,16 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="BG1:BG3"/>
-    <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="BH1:BH3"/>
-    <mergeCell ref="BI1:BI3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BC1:BC3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="P1:AY1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
